--- a/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-31,96</t>
+          <t>-31,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-33,64</t>
+          <t>-27,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,28</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-23,77</t>
+          <t>-18,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,23</t>
+          <t>-27,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,92</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-27,92</t>
+          <t>-25,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,49</t>
+          <t>-27,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,78</t>
+          <t>-1,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-46,15; -16,61</t>
+          <t>-44,94; -17,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -20,37</t>
+          <t>-42,19; -11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,28; -4,59</t>
+          <t>-17,05; 17,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,43; -4,34</t>
+          <t>-35,05; -1,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -19,49</t>
+          <t>-42,18; -11,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 0,73</t>
+          <t>-19,43; 14,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -15,88</t>
+          <t>-36,84; -15,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -24,17</t>
+          <t>-38,93; -17,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-28,55; -6,66</t>
+          <t>-14,49; 10,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-68,17%</t>
+          <t>-78,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-71,75%</t>
+          <t>-69,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-55,22%</t>
+          <t>-48,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-81,84%</t>
+          <t>-71,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,66%</t>
+          <t>-8,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-61,81%</t>
+          <t>-65,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-76,36%</t>
+          <t>-70,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-37,16%</t>
+          <t>-4,87%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -40,53</t>
+          <t>-91,44; -53,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -43,56</t>
+          <t>-86,7; -26,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -11,24</t>
+          <t>-36,18; 54,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,94; -13,83</t>
+          <t>-73,8; -1,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-94,29; -49,91</t>
+          <t>-87,23; -39,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 0,66</t>
+          <t>-40,66; 54,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,71; -39,52</t>
+          <t>-79,41; -46,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,66; -59,36</t>
+          <t>-83,98; -52,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,84; -17,15</t>
+          <t>-31,94; 32,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-31,3</t>
+          <t>-31,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-27,67</t>
+          <t>-33,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-18,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-18,92</t>
+          <t>-23,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,57</t>
+          <t>-35,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-14,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-25,85</t>
+          <t>-27,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-27,69</t>
+          <t>-34,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-16,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-44,94; -17,71</t>
+          <t>-46,15; -16,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-42,19; -11,36</t>
+          <t>-46,38; -20,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 17,49</t>
+          <t>-32,28; -4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,05; -1,03</t>
+          <t>-38,43; -4,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,18; -11,29</t>
+          <t>-48,61; -19,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 14,44</t>
+          <t>-31,2; 0,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,84; -15,19</t>
+          <t>-37,79; -15,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -17,24</t>
+          <t>-43,69; -24,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 10,48</t>
+          <t>-28,55; -6,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-78,89%</t>
+          <t>-68,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-69,74%</t>
+          <t>-71,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-48,8%</t>
+          <t>-55,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-71,1%</t>
+          <t>-81,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-34,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-65,79%</t>
+          <t>-61,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-70,49%</t>
+          <t>-76,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-37,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,44; -53,62</t>
+          <t>-85,85; -40,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,7; -26,58</t>
+          <t>-85,85; -43,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 54,01</t>
+          <t>-58,62; -11,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,8; -1,54</t>
+          <t>-75,94; -13,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,23; -39,08</t>
+          <t>-94,29; -49,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 54,23</t>
+          <t>-61,69; 0,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-79,41; -46,25</t>
+          <t>-76,71; -39,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,98; -52,76</t>
+          <t>-87,66; -59,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 32,58</t>
+          <t>-55,84; -17,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,46</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,28</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,96</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,76</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>26,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,68</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,49</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>15,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 0,74</t>
+          <t>-28,65; 4,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -1,22</t>
+          <t>-23,9; 15,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 23,71</t>
+          <t>-10,61; 25,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,97; -5,3</t>
+          <t>-22,81; 9,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,97; -2,68</t>
+          <t>-27,07; 5,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 27,5</t>
+          <t>2,52; 48,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -6,35</t>
+          <t>-21,18; 2,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -6,14</t>
+          <t>-19,4; 7,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 20,68</t>
+          <t>0,16; 30,31</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,74%</t>
+          <t>-42,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,54%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-53,71%</t>
+          <t>-25,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,12%</t>
+          <t>-38,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,28%</t>
+          <t>-34,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,68%</t>
+          <t>-26,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>56,77%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,75; 4,09</t>
+          <t>-78,44; 31,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,87; -1,93</t>
+          <t>-63,6; 87,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 102,65</t>
+          <t>-29,2; 146,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,49; -18,02</t>
+          <t>-65,22; 65,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,43; -7,31</t>
+          <t>-77,45; 44,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 104,32</t>
+          <t>8,42; 268,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,1; -23,26</t>
+          <t>-61,55; 9,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,83; -21,17</t>
+          <t>-56,96; 37,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 74,18</t>
+          <t>0,17; 146,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-31,3</t>
+          <t>-28,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-27,67</t>
+          <t>-31,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,92</t>
+          <t>-23,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-27,57</t>
+          <t>-26,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-25,85</t>
+          <t>-26,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-27,69</t>
+          <t>-29,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-5,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,94; -17,71</t>
+          <t>-41,3; -15,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,19; -11,36</t>
+          <t>-44,33; -18,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 17,49</t>
+          <t>-13,64; 18,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-35,05; -1,03</t>
+          <t>-38,3; -8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,18; -11,29</t>
+          <t>-40,56; -11,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 14,44</t>
+          <t>-27,0; 6,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,84; -15,19</t>
+          <t>-35,85; -16,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -17,24</t>
+          <t>-39,05; -19,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 10,48</t>
+          <t>-15,85; 6,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-78,89%</t>
+          <t>-68,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-69,74%</t>
+          <t>-77,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-48,8%</t>
+          <t>-58,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-71,1%</t>
+          <t>-64,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-28,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-65,79%</t>
+          <t>-64,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-70,49%</t>
+          <t>-71,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-12,47%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-91,44; -53,62</t>
+          <t>-84,59; -44,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,7; -26,58</t>
+          <t>-91,55; -50,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 54,01</t>
+          <t>-28,93; 59,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,8; -1,54</t>
+          <t>-78,96; -24,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-87,23; -39,08</t>
+          <t>-83,01; -29,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 54,23</t>
+          <t>-57,79; 21,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,41; -46,25</t>
+          <t>-77,26; -45,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,98; -52,76</t>
+          <t>-83,01; -53,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 32,58</t>
+          <t>-34,41; 18,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-31,96</t>
+          <t>-33,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-33,64</t>
+          <t>-30,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,28</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,77</t>
+          <t>-27,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-35,23</t>
+          <t>-27,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,92</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-27,92</t>
+          <t>-30,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-34,49</t>
+          <t>-29,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,78</t>
+          <t>-3,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-46,15; -16,61</t>
+          <t>-54,02; -15,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -20,37</t>
+          <t>-49,08; -12,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,28; -4,59</t>
+          <t>-36,18; 4,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,43; -4,34</t>
+          <t>-48,84; -8,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -19,49</t>
+          <t>-47,69; -10,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 0,73</t>
+          <t>-10,51; 32,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -15,88</t>
+          <t>-44,31; -16,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -24,17</t>
+          <t>-41,39; -15,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,55; -6,66</t>
+          <t>-17,68; 11,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-68,17%</t>
+          <t>-79,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-71,75%</t>
+          <t>-73,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>-36,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-55,22%</t>
+          <t>-71,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-81,84%</t>
+          <t>-70,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,66%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-61,81%</t>
+          <t>-75,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-76,36%</t>
+          <t>-71,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,16%</t>
+          <t>-8,21%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -40,53</t>
+          <t>-100,0; -35,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -43,56</t>
+          <t>-92,99; -37,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -11,24</t>
+          <t>-67,28; 16,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,94; -13,83</t>
+          <t>-92,91; -24,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-94,29; -49,91</t>
+          <t>-90,2; -29,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 0,66</t>
+          <t>-22,55; 132,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,71; -39,52</t>
+          <t>-89,74; -49,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,66; -59,36</t>
+          <t>-86,14; -47,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,84; -17,15</t>
+          <t>-35,86; 37,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-26,01</t>
+          <t>-27,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,0</t>
+          <t>-30,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-20,33</t>
+          <t>-20,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-25,71</t>
+          <t>-39,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-25,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-23,3</t>
+          <t>-23,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-25,92</t>
+          <t>-34,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-18,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,59; -17,53</t>
+          <t>-43,57; -7,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-33,68; -16,99</t>
+          <t>-46,78; -10,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 4,46</t>
+          <t>-28,71; 3,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,62; -11,14</t>
+          <t>-37,15; 1,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,7; -18,28</t>
+          <t>-54,96; -20,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 4,26</t>
+          <t>-44,22; -8,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,1; -17,2</t>
+          <t>-36,76; -9,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -19,75</t>
+          <t>-46,28; -22,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 1,96</t>
+          <t>-30,38; -5,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-65,38%</t>
+          <t>-60,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-65,35%</t>
+          <t>-67,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,21%</t>
+          <t>-27,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,15%</t>
+          <t>-44,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-67,21%</t>
+          <t>-86,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-55,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-59,63%</t>
+          <t>-52,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-66,33%</t>
+          <t>-76,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,83%</t>
+          <t>-41,01%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,87; -49,48</t>
+          <t>-81,47; -17,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,87; -47,96</t>
+          <t>-88,37; -25,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 12,59</t>
+          <t>-53,3; 10,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,91; -33,23</t>
+          <t>-72,66; 6,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,14; -51,99</t>
+          <t>-100,0; -44,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 12,41</t>
+          <t>-79,55; -24,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,57; -48,11</t>
+          <t>-71,62; -21,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,38; -54,76</t>
+          <t>-90,54; -54,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 5,27</t>
+          <t>-60,43; -15,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-26,01</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-26,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-5,65</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-20,33</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-25,71</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,11</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-23,3</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-25,92</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-33,94; -18,09</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-34,02; -17,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-14,62; 3,41</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; -12,33</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-34,34; -16,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; 4,2</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; -17,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-31,55; -20,0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-65,38%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-65,35%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-14,21%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-53,15%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-67,21%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-59,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-66,33%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-13,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-76,68; -50,49</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-77,94; -50,17</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-34,04; 9,51</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-66,95; -34,01</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-78,52; -51,63</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-35,46; 11,89</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-68,84; -48,26</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-74,92; -55,28</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-27,85; 1,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 4,57</t>
+          <t>-30,14; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 15,37</t>
+          <t>-24,06; 13,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 25,72</t>
+          <t>-11,97; 27,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 9,17</t>
+          <t>-24,11; 9,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 5,26</t>
+          <t>-26,27; 7,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 48,03</t>
+          <t>1,95; 47,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 2,01</t>
+          <t>-20,86; 2,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 7,26</t>
+          <t>-19,94; 5,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 30,31</t>
+          <t>0,89; 30,2</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,44; 31,88</t>
+          <t>-78,33; 42,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 87,33</t>
+          <t>-62,35; 67,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 146,44</t>
+          <t>-30,59; 151,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,22; 65,82</t>
+          <t>-69,93; 51,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,45; 44,58</t>
+          <t>-76,29; 58,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 268,83</t>
+          <t>5,26; 265,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 9,5</t>
+          <t>-63,05; 11,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,96; 37,78</t>
+          <t>-60,13; 32,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 146,91</t>
+          <t>2,42; 143,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,3; -15,86</t>
+          <t>-41,86; -15,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,33; -18,77</t>
+          <t>-43,87; -18,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 18,72</t>
+          <t>-14,45; 17,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,3; -8,54</t>
+          <t>-38,63; -7,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,56; -11,23</t>
+          <t>-40,36; -11,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 6,09</t>
+          <t>-26,9; 6,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,85; -16,38</t>
+          <t>-35,69; -16,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,05; -19,09</t>
+          <t>-39,45; -19,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 6,13</t>
+          <t>-16,02; 6,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,59; -44,73</t>
+          <t>-84,31; -45,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-91,55; -50,45</t>
+          <t>-91,64; -52,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 59,31</t>
+          <t>-31,32; 55,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,96; -24,26</t>
+          <t>-78,2; -20,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,01; -29,66</t>
+          <t>-81,5; -30,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 21,59</t>
+          <t>-55,13; 20,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,26; -45,84</t>
+          <t>-76,93; -45,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,01; -53,16</t>
+          <t>-83,33; -53,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 18,41</t>
+          <t>-34,72; 20,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-54,02; -15,9</t>
+          <t>-53,06; -14,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-49,08; -12,07</t>
+          <t>-48,96; -12,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 4,96</t>
+          <t>-38,22; 3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,84; -8,88</t>
+          <t>-47,03; -7,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,69; -10,12</t>
+          <t>-46,25; -8,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 32,13</t>
+          <t>-9,29; 33,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,31; -16,67</t>
+          <t>-44,65; -17,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,39; -15,27</t>
+          <t>-42,27; -16,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 11,16</t>
+          <t>-19,47; 11,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -35,4</t>
+          <t>-100,0; -37,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -37,32</t>
+          <t>-91,59; -33,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 16,77</t>
+          <t>-69,15; 14,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-92,91; -24,39</t>
+          <t>-89,88; -22,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,2; -29,08</t>
+          <t>-90,09; -26,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 132,77</t>
+          <t>-19,3; 149,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-89,74; -49,87</t>
+          <t>-88,96; -48,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,14; -47,64</t>
+          <t>-86,25; -49,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 37,76</t>
+          <t>-38,8; 38,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-43,57; -7,37</t>
+          <t>-42,36; -7,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-46,78; -10,94</t>
+          <t>-44,45; -11,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 3,97</t>
+          <t>-29,1; 4,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 1,59</t>
+          <t>-38,03; 2,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,96; -20,58</t>
+          <t>-56,72; -21,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-44,22; -8,69</t>
+          <t>-42,97; -5,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -9,52</t>
+          <t>-36,82; -10,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-46,28; -22,1</t>
+          <t>-46,51; -21,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-30,38; -5,75</t>
+          <t>-30,34; -6,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,47; -17,24</t>
+          <t>-83,93; -21,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,37; -25,75</t>
+          <t>-87,42; -26,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,3; 10,83</t>
+          <t>-54,29; 13,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,66; 6,92</t>
+          <t>-70,96; 11,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -44,64</t>
+          <t>-100,0; -53,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,55; -24,0</t>
+          <t>-79,75; -15,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,62; -21,3</t>
+          <t>-71,08; -24,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,54; -54,43</t>
+          <t>-90,92; -55,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,43; -15,25</t>
+          <t>-59,82; -15,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-33,94; -18,09</t>
+          <t>-34,24; -18,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-34,02; -17,54</t>
+          <t>-34,39; -18,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 3,41</t>
+          <t>-13,7; 3,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -12,33</t>
+          <t>-29,36; -12,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,34; -16,91</t>
+          <t>-34,79; -17,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 4,2</t>
+          <t>-15,18; 5,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -17,36</t>
+          <t>-29,32; -17,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -20,0</t>
+          <t>-31,83; -20,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 0,95</t>
+          <t>-11,66; 1,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,68; -50,49</t>
+          <t>-76,47; -50,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,94; -50,17</t>
+          <t>-77,91; -49,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 9,51</t>
+          <t>-31,67; 11,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,95; -34,01</t>
+          <t>-67,79; -34,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -51,63</t>
+          <t>-80,0; -52,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 11,89</t>
+          <t>-35,68; 16,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -48,26</t>
+          <t>-69,21; -48,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -55,28</t>
+          <t>-74,81; -56,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 1,86</t>
+          <t>-27,91; 4,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,85</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-10,3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25,42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-12,13</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-4,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,85</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,3</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,19</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,69</t>
+          <t>14,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 4,27</t>
+          <t>-23,42; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 13,72</t>
+          <t>-27,22; 6,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 27,94</t>
+          <t>1,87; 46,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 9,75</t>
+          <t>-28,87; 4,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 7,94</t>
+          <t>-23,31; 14,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 47,86</t>
+          <t>-14,77; 25,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 2,38</t>
+          <t>-21,71; 2,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 5,5</t>
+          <t>-20,15; 6,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 30,2</t>
+          <t>-1,8; 28,03</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-25,88%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-38,88%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>96,02%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-42,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-13,89%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>25,87%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-25,88%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-38,88%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,77%</t>
+          <t>51,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 42,04</t>
+          <t>-64,62; 58,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 67,04</t>
+          <t>-76,8; 45,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 151,3</t>
+          <t>3,71; 249,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 51,31</t>
+          <t>-75,92; 34,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 58,92</t>
+          <t>-64,04; 70,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 265,31</t>
+          <t>-39,83; 136,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 11,33</t>
+          <t>-61,79; 12,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 32,14</t>
+          <t>-60,6; 33,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 143,65</t>
+          <t>-4,24; 137,91</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-23,87</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-26,46</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-13,09</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-28,39</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-31,94</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-23,87</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-26,46</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,85</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-5,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,86; -15,6</t>
+          <t>-37,21; -8,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -18,84</t>
+          <t>-40,3; -11,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 17,55</t>
+          <t>-28,11; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,63; -7,88</t>
+          <t>-40,78; -15,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -11,29</t>
+          <t>-44,17; -18,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 6,36</t>
+          <t>-15,68; 15,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,69; -16,13</t>
+          <t>-36,38; -16,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,45; -19,29</t>
+          <t>-39,0; -19,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 6,8</t>
+          <t>-17,81; 5,64</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-58,18%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-64,49%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-31,92%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-68,98%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-77,62%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-58,18%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-64,49%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,88%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,47%</t>
+          <t>-14,37%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,31; -45,51</t>
+          <t>-78,05; -25,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-91,64; -52,69</t>
+          <t>-84,07; -34,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 55,21</t>
+          <t>-59,39; 10,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,2; -20,42</t>
+          <t>-84,09; -43,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,5; -30,44</t>
+          <t>-91,59; -53,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,13; 20,83</t>
+          <t>-33,03; 49,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,93; -45,29</t>
+          <t>-76,51; -46,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,33; -53,2</t>
+          <t>-84,47; -54,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 20,18</t>
+          <t>-39,05; 16,49</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-27,94</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-27,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-33,22</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-30,78</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-15,5</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-27,94</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-27,33</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>-16,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-4,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-53,06; -14,8</t>
+          <t>-48,81; -9,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-48,96; -12,57</t>
+          <t>-45,82; -9,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 3,69</t>
+          <t>-12,06; 30,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,03; -7,84</t>
+          <t>-51,56; -14,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,25; -8,62</t>
+          <t>-48,23; -13,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 33,79</t>
+          <t>-38,21; 2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,65; -17,94</t>
+          <t>-44,73; -17,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -16,67</t>
+          <t>-42,34; -14,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 11,73</t>
+          <t>-19,85; 10,54</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-71,89%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-70,33%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-79,19%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-73,37%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-36,95%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-71,89%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-70,33%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>-38,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>-10,88%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -37,53</t>
+          <t>-91,01; -22,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,59; -33,85</t>
+          <t>-89,73; -25,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,15; 14,23</t>
+          <t>-23,35; 119,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,88; -22,14</t>
+          <t>-95,52; -38,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,09; -26,86</t>
+          <t>-91,42; -34,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 149,89</t>
+          <t>-70,8; 8,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-88,96; -48,92</t>
+          <t>-88,99; -51,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,25; -49,92</t>
+          <t>-85,59; -45,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 38,7</t>
+          <t>-40,36; 33,38</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-20,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-39,22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-30,78</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-27,26</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-30,27</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-12,43</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-20,24</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-39,22</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-25,07</t>
+          <t>-12,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-18,47</t>
+          <t>-22,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -7,61</t>
+          <t>-39,16; -1,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -11,58</t>
+          <t>-55,89; -23,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 4,76</t>
+          <t>-52,0; -12,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 2,4</t>
+          <t>-43,06; -9,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -21,99</t>
+          <t>-47,96; -12,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,97; -5,75</t>
+          <t>-28,88; 4,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,82; -10,7</t>
+          <t>-37,82; -9,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-46,51; -21,76</t>
+          <t>-45,61; -21,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -6,09</t>
+          <t>-36,9; -8,93</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-44,89%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-86,98%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-68,27%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-60,57%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-67,27%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-27,62%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-44,89%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-86,98%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,59%</t>
+          <t>-28,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>-50,05%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-83,93; -21,42</t>
+          <t>-74,78; -0,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-87,42; -26,33</t>
+          <t>-100,0; -52,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 13,64</t>
+          <t>-89,56; -35,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 11,13</t>
+          <t>-84,26; -20,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -53,32</t>
+          <t>-88,34; -19,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,75; -15,6</t>
+          <t>-55,53; 12,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,08; -24,42</t>
+          <t>-72,63; -24,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,92; -55,18</t>
+          <t>-90,1; -51,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,82; -15,89</t>
+          <t>-72,09; -23,84</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-20,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-25,71</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-9,75</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-26,01</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-26,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-20,33</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-25,71</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-7,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-34,24; -18,29</t>
+          <t>-28,62; -11,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-34,39; -18,0</t>
+          <t>-34,7; -18,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 3,94</t>
+          <t>-23,65; 0,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,36; -12,04</t>
+          <t>-33,59; -17,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -17,65</t>
+          <t>-33,68; -16,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 5,36</t>
+          <t>-14,13; 4,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-29,32; -17,4</t>
+          <t>-29,1; -17,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -20,5</t>
+          <t>-31,9; -19,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 1,3</t>
+          <t>-16,2; -0,44</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-53,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-67,21%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-25,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-65,38%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-65,35%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-53,15%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-67,21%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-15,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,83%</t>
+          <t>-20,46%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,47; -50,97</t>
+          <t>-66,91; -33,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,91; -49,51</t>
+          <t>-80,14; -51,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 11,92</t>
+          <t>-55,64; 0,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-67,79; -34,88</t>
+          <t>-76,87; -49,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-80,0; -52,72</t>
+          <t>-76,87; -47,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 16,76</t>
+          <t>-32,1; 11,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-69,21; -48,54</t>
+          <t>-69,57; -48,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,81; -56,12</t>
+          <t>-75,38; -54,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 4,09</t>
+          <t>-38,37; -1,29</t>
         </is>
       </c>
     </row>
